--- a/2.0.0/StructureDefinition-source-id.xlsx
+++ b/2.0.0/StructureDefinition-source-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/2.0.0/StructureDefinition-source-id.xlsx
+++ b/2.0.0/StructureDefinition-source-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/2.0.0/StructureDefinition-source-id.xlsx
+++ b/2.0.0/StructureDefinition-source-id.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
